--- a/document/Excel_test.xlsx
+++ b/document/Excel_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F99D36-610A-4FAE-B438-334C587992F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D35AA9D-C559-4355-ABE9-CB8C0021B226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,15 +47,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhangsan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lisi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wangwu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhaoliu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maliu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,12 +408,13 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -430,10 +439,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>20220303</v>
+        <v>19910303</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -449,7 +458,7 @@
         <v>20220404</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -465,7 +474,7 @@
         <v>20220505</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -477,9 +486,15 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
